--- a/해커톤/최종규격/윽박이_최종규격.xlsx
+++ b/해커톤/최종규격/윽박이_최종규격.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlska\Documents\Coala_study\해커톤\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS43VR\Documents\Coala_study\해커톤\최종규격\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3255E099-804A-492D-A997-8E5A1F12E5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13FC026-ED72-4A65-B3BA-E051FE7303F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="101">
   <si>
     <t>썸네일</t>
   </si>
@@ -46,303 +46,6 @@
     <t>영상길이</t>
   </si>
   <si>
-    <t>소화기가 터져버렸습니다.. 신기하네요 ㄷㄷ</t>
-  </si>
-  <si>
-    <t>이게 모래냐..? 인도 길거리 음식 모래 튀김 먹방</t>
-  </si>
-  <si>
-    <t>절대 안 깨지는 무장색 계란과 수박</t>
-  </si>
-  <si>
-    <t>방송 도중 갑작스러운 통증으로....</t>
-  </si>
-  <si>
-    <t>大방어 통으로 요리 해봤습니다</t>
-  </si>
-  <si>
-    <t>90억 리조트 전세 내고 가족 여행 왔습니다</t>
-  </si>
-  <si>
-    <t>1초만 튀겨도 초대형 튀김이 되는 이것을 공개 합니다!</t>
-  </si>
-  <si>
-    <t>이거 먹다가 쌌다.. PAQUI ONE CHIP CHALLENGE</t>
-  </si>
-  <si>
-    <t>오늘 돈 자랑 한번 해보겠습니다</t>
-  </si>
-  <si>
-    <t>3년 연속 대상 받았습니다 팬분들 감사합니다!!</t>
-  </si>
-  <si>
-    <t>진짜 뜨거운 기름에 타조알 튀기면 생기는 일</t>
-  </si>
-  <si>
-    <t>썸네일 어그로 아닙니다 진짜 큽니다</t>
-  </si>
-  <si>
-    <t>[절대] 안 떨어지는 초강력 자석으로 자동차 끌었습니다</t>
-  </si>
-  <si>
-    <t>가마솥 요리 3년차 특허등록 하러 가겠습니다</t>
-  </si>
-  <si>
-    <t>잡았더니 주작이라고?ㅋㅋ</t>
-  </si>
-  <si>
-    <t>헐.. 드럼통에 삼겹살+갑오징어 구웠는데 ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>[절대] 불에 타지 않는 방패 1000도 이상도 끄떡없는 ㄷㄷ</t>
-  </si>
-  <si>
-    <t>[절대] 부셔지지 않는 액체를 바르면 생기는 일</t>
-  </si>
-  <si>
-    <t>러시아 미녀 분과 함께 식사했습니다</t>
-  </si>
-  <si>
-    <t>버려진 탱크 발견해서 들어갔는데 진짜 신기하네요ㄷㄷ</t>
-  </si>
-  <si>
-    <t>러시아 사람이랑 시비 붙어서 싸울 뻔했습니다</t>
-  </si>
-  <si>
-    <t>진짜 X됐습니다</t>
-  </si>
-  <si>
-    <t>러시아 ㄹㅇ진짜 곰 먹방(bear mukbang)</t>
-  </si>
-  <si>
-    <t>러시아 불곰 피하기 위해 초대형 이글루 완성했습니다</t>
-  </si>
-  <si>
-    <t>러시아 현지에서 살아남기 근데.. 말이 통하지 않아 죽겠..</t>
-  </si>
-  <si>
-    <t>일단 해명하겠습니다</t>
-  </si>
-  <si>
-    <t>우리 동네 물고기 생겼따~~~!!</t>
-  </si>
-  <si>
-    <t>드라이아이스를 개울에 넣었더니.. 대 반전ㄷㄷ</t>
-  </si>
-  <si>
-    <t>이럴 땐 어떻게 해야 하죠? 도대체 왜..</t>
-  </si>
-  <si>
-    <t>간단하게 오염된 물 정수하는 방법</t>
-  </si>
-  <si>
-    <t>다리 길이만 이 정도?? 3m 괴물 문어 먹방해보았습니다</t>
-  </si>
-  <si>
-    <t>3000도 불에서 1초만에 삼겹살 구워버렸습니다</t>
-  </si>
-  <si>
-    <t>비싸서 시중에 안파는 특이한 훈제 치킨</t>
-  </si>
-  <si>
-    <t>사람보다 큰 이무기 회쳐서 먹방</t>
-  </si>
-  <si>
-    <t>오프로드 주행 중 연기가 나는 바람에 ..?!</t>
-  </si>
-  <si>
-    <t>뱀술 만들고 신고 받았어요..이건 문제 없죠?</t>
-  </si>
-  <si>
-    <t>초간단 탕후루 10분 안에 실패 없이 만드는 방법</t>
-  </si>
-  <si>
-    <t>살아있는 뱀으로 술을 만들었습니다</t>
-  </si>
-  <si>
-    <t>생방송 도중 진짜 도둑 맞았습니다</t>
-  </si>
-  <si>
-    <t>영하 날씨 맨 몸 입수ㅠㅠ</t>
-  </si>
-  <si>
-    <t>불닭볶음면보다 3배 매운 뱀파이어 치킨 먹방</t>
-  </si>
-  <si>
-    <t>드디어 원하는 차를 샀어요 여러분 감사합니다</t>
-  </si>
-  <si>
-    <t>더 이상 샤워를 할 수 없는 몸이 되었습니다</t>
-  </si>
-  <si>
-    <t>멸치가 근육 멸치인 이유ㄷㄷ</t>
-  </si>
-  <si>
-    <t>금속탐지기로 "돈" 벌었습니다</t>
-  </si>
-  <si>
-    <t>죄송합니다</t>
-  </si>
-  <si>
-    <t>위조지폐 결과와 서린이 근황</t>
-  </si>
-  <si>
-    <t>나 화났어</t>
-  </si>
-  <si>
-    <t>오토바이 부릉부릉</t>
-  </si>
-  <si>
-    <t>나 삐졌어</t>
-  </si>
-  <si>
-    <t>나 취했어</t>
-  </si>
-  <si>
-    <t>위기탈출 넘버68</t>
-  </si>
-  <si>
-    <t>작살나는 낚시법</t>
-  </si>
-  <si>
-    <t>돌멩이 가지고 왔어요</t>
-  </si>
-  <si>
-    <t>서린이 안X사 하라네요.. 돼지열병 사라졌으면..</t>
-  </si>
-  <si>
-    <t>장가 갈 수 있을까</t>
-  </si>
-  <si>
-    <t>남자는 머리빨</t>
-  </si>
-  <si>
-    <t>나 맞았어</t>
-  </si>
-  <si>
-    <t>위조지폐? 과학수사대 접수 했어요</t>
-  </si>
-  <si>
-    <t>드디어 숯을 만들었습니다</t>
-  </si>
-  <si>
-    <t>단 6시간 만에 직접 만든 황토 사우나</t>
-  </si>
-  <si>
-    <t>콘텐츠를 못하고 있는 이유..</t>
-  </si>
-  <si>
-    <t>윽박랜드 농사 망했습니다</t>
-  </si>
-  <si>
-    <t>물로켓으로 낚시하는 도중에 생긴 일 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>직접 만든 모짜렐라치즈로 대왕 핫도그 대공개!</t>
-  </si>
-  <si>
-    <t>집에서 셀프 방역 한방에 끝 *엄마 등짝 주의*</t>
-  </si>
-  <si>
-    <t>초봉6000 이상 월 500만원 + @  직원채용 공고^^!!</t>
-  </si>
-  <si>
-    <t>전국에 돼지 열병이 퍼지고있다는 지금...</t>
-  </si>
-  <si>
-    <t>산 먹거리 밤 1kg 맨손으로 밤송이 까기 ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>사람을 지키는 자동차 에어백으로 지뢰를 만들면..ㄷㄷ</t>
-  </si>
-  <si>
-    <t>언제 어디서든 따듯한 물로 샤워가 가능한 초간단 야외 보일러 목욕탕</t>
-  </si>
-  <si>
-    <t>돌아온 레전드 뻥튀기 사건 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>게임 속 칼을 실제로 똑같이 연마해서 만들었습니다 ㄷㄷ</t>
-  </si>
-  <si>
-    <t>초강력 에어 물로 과일들 박살 내기 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>사냥 강아지들 근황 (잘키우는중♥)</t>
-  </si>
-  <si>
-    <t>군대 밥해서 여자친구들 한테 맛평가ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>태풍으로 인해 길거리에 쓰러진 거대 나무들 ㄷㄷ 바로 달려갔습니다</t>
-  </si>
-  <si>
-    <t>이 영상을 끝으로 매운맛 시리즈 포기 합니다</t>
-  </si>
-  <si>
-    <t>완전군장 40kg 행군 방송 하는데 간첩으로 오해를;;</t>
-  </si>
-  <si>
-    <t>양파링을 초대형으로 만들어봤습니다 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>밀가루 분진과 불이 만나 터지면 ㄷㄷ</t>
-  </si>
-  <si>
-    <t>안녕하세요. 윽박입니다.</t>
-  </si>
-  <si>
-    <t>동굴 속 금속탐지기 탐험</t>
-  </si>
-  <si>
-    <t>LPG 가스통으로 잠수를 했을 때</t>
-  </si>
-  <si>
-    <t>바다 한 가운데에서 즐기는 선상 바다 낚시</t>
-  </si>
-  <si>
-    <t>버려진 쓰레기로 집짓기 근데.. 팬분들 찾아와서 급 종료했어요</t>
-  </si>
-  <si>
-    <t>사탕이 이렇게 위험한지 몰랐어요</t>
-  </si>
-  <si>
-    <t>콘텐츠를 중단 하게 된 이유..</t>
-  </si>
-  <si>
-    <t>논,밭이 보이는 시골 야외 라면 먹방</t>
-  </si>
-  <si>
-    <t>태풍이 불어닥칠 때 물고기를 잡으면..</t>
-  </si>
-  <si>
-    <t>마세라티 엔진으로 구운 삼겹살을 엄마 드렸을 때 반응 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>원룸 사기 당했어요</t>
-  </si>
-  <si>
-    <t>산삼 탐지견 두 마리와 산삼 찾으러 갔다가 긴급 중단..</t>
-  </si>
-  <si>
-    <t>가마솥 5초 만에 치킨 튀기기ㄷㄷ</t>
-  </si>
-  <si>
-    <t>공포체험하다가 바지에 지려버렸습니다</t>
-  </si>
-  <si>
-    <t>강아지 짖음 방지기를 했어요</t>
-  </si>
-  <si>
-    <t>팬미팅 현장속에서 삼계탕 먹방</t>
-  </si>
-  <si>
-    <t>2년 넘게 버려져있던 대형 통발을 수거했더니 충격적인 내용물..</t>
-  </si>
-  <si>
-    <t>5돈 금반지, 2돈 금배지, 골드바 금을 한꺼번에 녹이면..</t>
-  </si>
-  <si>
     <t>4:34</t>
   </si>
   <si>
@@ -614,6 +317,14 @@
   </si>
   <si>
     <t>10:06</t>
+  </si>
+  <si>
+    <t>일상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독자 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -652,7 +363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -675,13 +386,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1022,15 +747,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I3" sqref="I3:I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,16 +780,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
       </c>
       <c r="D2">
         <v>173273</v>
@@ -1079,18 +807,21 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
         <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
       </c>
       <c r="D3">
         <v>202352</v>
@@ -1105,18 +836,21 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
       </c>
       <c r="D4">
         <v>198988</v>
@@ -1131,18 +865,21 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
       </c>
       <c r="D5">
         <v>232506</v>
@@ -1157,18 +894,21 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
       </c>
       <c r="D6">
         <v>307548</v>
@@ -1183,18 +923,21 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.5</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
+      <c r="B7">
         <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
       </c>
       <c r="D7">
         <v>914720</v>
@@ -1209,18 +952,21 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
       </c>
       <c r="D8">
         <v>609518</v>
@@ -1235,18 +981,21 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.5</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
       </c>
       <c r="D9">
         <v>451731</v>
@@ -1261,18 +1010,21 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.5</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
       </c>
       <c r="D10">
         <v>855185</v>
@@ -1287,18 +1039,21 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.5</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
       </c>
       <c r="D11">
         <v>410206</v>
@@ -1313,18 +1068,21 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
       </c>
       <c r="D12">
         <v>283852</v>
@@ -1339,18 +1097,21 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
       </c>
       <c r="D13">
         <v>724758</v>
@@ -1365,18 +1126,21 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
       </c>
       <c r="D14">
         <v>187280</v>
@@ -1391,18 +1155,21 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
       </c>
       <c r="D15">
         <v>143538</v>
@@ -1417,18 +1184,21 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
       </c>
       <c r="D16">
         <v>373242</v>
@@ -1443,18 +1213,21 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
       </c>
       <c r="D17">
         <v>257430</v>
@@ -1469,18 +1242,21 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.5</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
       </c>
       <c r="D18">
         <v>206650</v>
@@ -1495,18 +1271,21 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.5</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
       </c>
       <c r="D19">
         <v>494615</v>
@@ -1521,18 +1300,21 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
+      <c r="B20">
         <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
       </c>
       <c r="D20">
         <v>124546</v>
@@ -1547,18 +1329,21 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
+      <c r="B21">
         <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
       </c>
       <c r="D21">
         <v>324445</v>
@@ -1573,18 +1358,21 @@
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I21">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3.5</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22">
+      <c r="B22">
         <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
       </c>
       <c r="D22">
         <v>300825</v>
@@ -1599,15 +1387,21 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.5</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
       </c>
       <c r="D23">
         <v>252046</v>
@@ -1622,18 +1416,21 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="I23">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
+      <c r="B24">
         <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
       </c>
       <c r="D24">
         <v>699754</v>
@@ -1648,18 +1445,21 @@
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2.5</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
+      <c r="B25">
         <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
       </c>
       <c r="D25">
         <v>336266</v>
@@ -1674,18 +1474,21 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3.5</v>
       </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26">
+      <c r="B26">
         <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
       </c>
       <c r="D26">
         <v>294971</v>
@@ -1700,18 +1503,21 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I26">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2.5</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
       </c>
       <c r="D27">
         <v>308515</v>
@@ -1726,18 +1532,21 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I27">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2.5</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
       </c>
       <c r="D28">
         <v>327185</v>
@@ -1752,18 +1561,21 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I28">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
       </c>
       <c r="D29">
         <v>971850</v>
@@ -1778,18 +1590,21 @@
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I29">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
       </c>
       <c r="D30">
         <v>249320</v>
@@ -1804,18 +1619,21 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="I30">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.5</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
       </c>
       <c r="D31">
         <v>261089</v>
@@ -1830,18 +1648,21 @@
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="I31">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2.5</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
       </c>
       <c r="D32">
         <v>769436</v>
@@ -1856,18 +1677,21 @@
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I32">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2.5</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
       </c>
       <c r="D33">
         <v>544131</v>
@@ -1882,18 +1706,21 @@
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="I33">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2.5</v>
       </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
       </c>
       <c r="D34">
         <v>214749</v>
@@ -1908,18 +1735,21 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I34">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2.5</v>
       </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
       </c>
       <c r="D35">
         <v>413388</v>
@@ -1934,18 +1764,21 @@
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I35">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2.5</v>
       </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
       </c>
       <c r="D36">
         <v>322881</v>
@@ -1960,18 +1793,21 @@
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I36">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
       </c>
       <c r="D37">
         <v>365504</v>
@@ -1986,18 +1822,21 @@
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I37">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38">
-        <v>4</v>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
       </c>
       <c r="D38">
         <v>548433</v>
@@ -2012,18 +1851,21 @@
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I38">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
       </c>
       <c r="D39">
         <v>1018439</v>
@@ -2038,18 +1880,21 @@
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I39">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2.5</v>
       </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
       </c>
       <c r="D40">
         <v>509023</v>
@@ -2064,18 +1909,21 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I40">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
       </c>
       <c r="D41">
         <v>328942</v>
@@ -2090,18 +1938,21 @@
         <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I41">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
       </c>
       <c r="D42">
         <v>357332</v>
@@ -2116,18 +1967,21 @@
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="I42">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
       </c>
       <c r="D43">
         <v>820136</v>
@@ -2142,18 +1996,21 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I43">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
       </c>
       <c r="D44">
         <v>506866</v>
@@ -2168,18 +2025,21 @@
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I44">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2.5</v>
       </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
       </c>
       <c r="D45">
         <v>383519</v>
@@ -2194,18 +2054,21 @@
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I45">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
       </c>
       <c r="D46">
         <v>627461</v>
@@ -2220,18 +2083,21 @@
         <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I46">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
       </c>
       <c r="D47">
         <v>271658</v>
@@ -2246,18 +2112,21 @@
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="I47">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
       </c>
       <c r="D48">
         <v>548028</v>
@@ -2272,18 +2141,21 @@
         <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I48">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>99</v>
       </c>
       <c r="D49">
         <v>234906</v>
@@ -2298,18 +2170,21 @@
         <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="I49">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
-      <c r="B50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
       </c>
       <c r="D50">
         <v>454199</v>
@@ -2324,18 +2199,21 @@
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="I50">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
       </c>
       <c r="D51">
         <v>316264</v>
@@ -2350,18 +2228,21 @@
         <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="I51">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
       </c>
       <c r="D52">
         <v>234940</v>
@@ -2376,18 +2257,21 @@
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="I52">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>99</v>
       </c>
       <c r="D53">
         <v>669435</v>
@@ -2402,18 +2286,21 @@
         <v>2</v>
       </c>
       <c r="H53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I53">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
-      <c r="B54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
       </c>
       <c r="D54">
         <v>239318</v>
@@ -2428,18 +2315,21 @@
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="I54">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
       </c>
       <c r="D55">
         <v>397693</v>
@@ -2454,18 +2344,21 @@
         <v>2</v>
       </c>
       <c r="H55" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="I55">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
-      <c r="B56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
       </c>
       <c r="D56">
         <v>1097943</v>
@@ -2480,18 +2373,21 @@
         <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="I56">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2</v>
       </c>
-      <c r="B57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>99</v>
       </c>
       <c r="D57">
         <v>234648</v>
@@ -2506,18 +2402,21 @@
         <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="I57">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2</v>
       </c>
-      <c r="B58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>99</v>
       </c>
       <c r="D58">
         <v>303882</v>
@@ -2532,18 +2431,21 @@
         <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="I58">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>99</v>
       </c>
       <c r="D59">
         <v>312231</v>
@@ -2558,18 +2460,21 @@
         <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="I59">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2.5</v>
       </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>99</v>
       </c>
       <c r="D60">
         <v>683615</v>
@@ -2584,18 +2489,21 @@
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="I60">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2</v>
       </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>99</v>
       </c>
       <c r="D61">
         <v>268023</v>
@@ -2610,18 +2518,21 @@
         <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I61">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2</v>
       </c>
-      <c r="B62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>99</v>
       </c>
       <c r="D62">
         <v>245367</v>
@@ -2636,18 +2547,21 @@
         <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I62">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>99</v>
       </c>
       <c r="D63">
         <v>276710</v>
@@ -2662,18 +2576,21 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I63">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2</v>
       </c>
-      <c r="B64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>99</v>
       </c>
       <c r="D64">
         <v>158772</v>
@@ -2688,18 +2605,21 @@
         <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I64">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2</v>
       </c>
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>99</v>
       </c>
       <c r="D65">
         <v>245934</v>
@@ -2714,18 +2634,21 @@
         <v>2</v>
       </c>
       <c r="H65" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="I65">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2</v>
       </c>
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>99</v>
       </c>
       <c r="D66">
         <v>263465</v>
@@ -2740,18 +2663,21 @@
         <v>2</v>
       </c>
       <c r="H66" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="I66">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>99</v>
       </c>
       <c r="D67">
         <v>187491</v>
@@ -2766,18 +2692,21 @@
         <v>2</v>
       </c>
       <c r="H67" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="I67">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2.5</v>
       </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>99</v>
       </c>
       <c r="D68">
         <v>494670</v>
@@ -2792,18 +2721,21 @@
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="I68">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2</v>
       </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>99</v>
       </c>
       <c r="D69">
         <v>416967</v>
@@ -2818,18 +2750,21 @@
         <v>2</v>
       </c>
       <c r="H69" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I69">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2</v>
       </c>
-      <c r="B70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>99</v>
       </c>
       <c r="D70">
         <v>225167</v>
@@ -2844,18 +2779,21 @@
         <v>2</v>
       </c>
       <c r="H70" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="I70">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2</v>
       </c>
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>99</v>
       </c>
       <c r="D71">
         <v>405214</v>
@@ -2870,18 +2808,21 @@
         <v>2</v>
       </c>
       <c r="H71" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I71">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2</v>
       </c>
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>99</v>
       </c>
       <c r="D72">
         <v>429454</v>
@@ -2896,18 +2837,21 @@
         <v>2</v>
       </c>
       <c r="H72" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="I72">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
-      <c r="B73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>99</v>
       </c>
       <c r="D73">
         <v>397169</v>
@@ -2922,18 +2866,21 @@
         <v>2</v>
       </c>
       <c r="H73" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="I73">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
-      <c r="B74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>99</v>
       </c>
       <c r="D74">
         <v>546346</v>
@@ -2948,18 +2895,21 @@
         <v>2</v>
       </c>
       <c r="H74" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="I74">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
-      <c r="B75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>99</v>
       </c>
       <c r="D75">
         <v>329278</v>
@@ -2974,18 +2924,21 @@
         <v>2</v>
       </c>
       <c r="H75" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="I75">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>99</v>
       </c>
       <c r="D76">
         <v>529427</v>
@@ -3000,18 +2953,21 @@
         <v>2</v>
       </c>
       <c r="H76" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I76">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
-      <c r="B77" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>99</v>
       </c>
       <c r="D77">
         <v>449553</v>
@@ -3026,18 +2982,21 @@
         <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="I77">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>99</v>
       </c>
       <c r="D78">
         <v>719552</v>
@@ -3052,18 +3011,21 @@
         <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="I78">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2</v>
       </c>
-      <c r="B79" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>99</v>
       </c>
       <c r="D79">
         <v>358718</v>
@@ -3078,18 +3040,21 @@
         <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="I79">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2</v>
       </c>
-      <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>99</v>
       </c>
       <c r="D80">
         <v>658387</v>
@@ -3104,18 +3069,21 @@
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="I80">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
-      <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>99</v>
       </c>
       <c r="D81">
         <v>372920</v>
@@ -3130,18 +3098,21 @@
         <v>2</v>
       </c>
       <c r="H81" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="I81">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2</v>
       </c>
-      <c r="B82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>99</v>
       </c>
       <c r="D82">
         <v>363485</v>
@@ -3156,18 +3127,21 @@
         <v>2</v>
       </c>
       <c r="H82" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="I82">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
-      <c r="B83" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>99</v>
       </c>
       <c r="D83">
         <v>440500</v>
@@ -3182,18 +3156,21 @@
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I83">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2</v>
       </c>
-      <c r="B84" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>99</v>
       </c>
       <c r="D84">
         <v>430183</v>
@@ -3208,18 +3185,21 @@
         <v>2</v>
       </c>
       <c r="H84" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="I84">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2.5</v>
       </c>
-      <c r="B85" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>99</v>
       </c>
       <c r="D85">
         <v>497851</v>
@@ -3234,18 +3214,21 @@
         <v>2</v>
       </c>
       <c r="H85" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="I85">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2.5</v>
       </c>
-      <c r="B86" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>99</v>
       </c>
       <c r="D86">
         <v>355118</v>
@@ -3260,18 +3243,21 @@
         <v>2</v>
       </c>
       <c r="H86" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I86">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2.5</v>
       </c>
-      <c r="B87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>99</v>
       </c>
       <c r="D87">
         <v>768856</v>
@@ -3286,18 +3272,21 @@
         <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="I87">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2.5</v>
       </c>
-      <c r="B88" t="s">
-        <v>94</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>99</v>
       </c>
       <c r="D88">
         <v>902738</v>
@@ -3312,18 +3301,21 @@
         <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="I88">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2.5</v>
       </c>
-      <c r="B89" t="s">
-        <v>95</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>99</v>
       </c>
       <c r="D89">
         <v>824710</v>
@@ -3338,18 +3330,21 @@
         <v>2</v>
       </c>
       <c r="H89" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="I89">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2</v>
       </c>
-      <c r="B90" t="s">
-        <v>96</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>99</v>
       </c>
       <c r="D90">
         <v>344570</v>
@@ -3364,18 +3359,21 @@
         <v>2</v>
       </c>
       <c r="H90" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I90">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2.5</v>
       </c>
-      <c r="B91" t="s">
-        <v>97</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>99</v>
       </c>
       <c r="D91">
         <v>733412</v>
@@ -3390,18 +3388,21 @@
         <v>2</v>
       </c>
       <c r="H91" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="I91">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2</v>
       </c>
-      <c r="B92" t="s">
-        <v>98</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>99</v>
       </c>
       <c r="D92">
         <v>628385</v>
@@ -3416,18 +3417,21 @@
         <v>2</v>
       </c>
       <c r="H92" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I92">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2</v>
       </c>
-      <c r="B93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C93">
-        <v>4</v>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>99</v>
       </c>
       <c r="D93">
         <v>284615</v>
@@ -3442,18 +3446,21 @@
         <v>2</v>
       </c>
       <c r="H93" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="I93">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2</v>
       </c>
-      <c r="B94" t="s">
-        <v>100</v>
-      </c>
-      <c r="C94">
-        <v>4</v>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>99</v>
       </c>
       <c r="D94">
         <v>833455</v>
@@ -3468,18 +3475,21 @@
         <v>2</v>
       </c>
       <c r="H94" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="I94">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2</v>
       </c>
-      <c r="B95" t="s">
-        <v>101</v>
-      </c>
-      <c r="C95">
-        <v>4</v>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
       </c>
       <c r="D95">
         <v>856742</v>
@@ -3494,18 +3504,21 @@
         <v>2</v>
       </c>
       <c r="H95" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="I95">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2</v>
       </c>
-      <c r="B96" t="s">
-        <v>102</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>99</v>
       </c>
       <c r="D96">
         <v>557361</v>
@@ -3520,18 +3533,21 @@
         <v>2</v>
       </c>
       <c r="H96" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="I96">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2.5</v>
       </c>
-      <c r="B97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C97">
-        <v>4</v>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>99</v>
       </c>
       <c r="D97">
         <v>935452</v>
@@ -3546,18 +3562,21 @@
         <v>2</v>
       </c>
       <c r="H97" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="I97">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>3</v>
       </c>
-      <c r="B98" t="s">
-        <v>104</v>
-      </c>
-      <c r="C98">
-        <v>4</v>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>99</v>
       </c>
       <c r="D98">
         <v>310727</v>
@@ -3572,18 +3591,21 @@
         <v>2</v>
       </c>
       <c r="H98" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="I98">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
-      <c r="B99" t="s">
-        <v>105</v>
-      </c>
-      <c r="C99">
-        <v>4</v>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>99</v>
       </c>
       <c r="D99">
         <v>2505771</v>
@@ -3598,18 +3620,21 @@
         <v>2</v>
       </c>
       <c r="H99" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="I99">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2.5</v>
       </c>
-      <c r="B100" t="s">
-        <v>106</v>
-      </c>
-      <c r="C100">
-        <v>4</v>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>99</v>
       </c>
       <c r="D100">
         <v>776432</v>
@@ -3624,7 +3649,10 @@
         <v>2</v>
       </c>
       <c r="H100" t="s">
-        <v>197</v>
+        <v>98</v>
+      </c>
+      <c r="I100">
+        <v>1670000</v>
       </c>
     </row>
   </sheetData>
